--- a/medicine/Handicap/Vivre_FM/Vivre_FM.xlsx
+++ b/medicine/Handicap/Vivre_FM/Vivre_FM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivre FM est une radio émettant depuis 2004 sur l'Île-de-France et le Grand Lyon. 
 Elle diffuse aussi ses programmes en streaming sur internet et désormais sur l'ensemble des plateformes comme Deezer, Spotify ou Google Podcasts.
@@ -514,15 +526,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La radio, de catégorie associative a été créée à l'initiative d'Anne Voileau, radio qu'elle a dirigé de sa création (16 septembre 2004) jusqu'en 2016. 
 Elle diffuse ses programmes tous les jours, de 5 h 30 à 17 h 30 en FM à Paris (93.9 MHz) et 24h/24 sur le DAB+ (canal 6A) par internet ainsi que sur l'ensemble des plateformes.
 Elle est gérée par l'Association nationale pour la prévention des handicaps et pour l'information (ANPHI). 
-Son équipe est composée de journalistes, animateurs et techniciens/réalisateurs valides et en situation de handicap[1],[2].
+Son équipe est composée de journalistes, animateurs et techniciens/réalisateurs valides et en situation de handicap,.
 Son directeur est Frédéric Cloteaux. Le directeur des programmes et de l'antenne est Jason Jobert. Dominique Celières est Responsable d'édition du 7/9. Le programmateur est Florian Praud.
 Le 15 décembre 2021, elle commence la diffusion de ses programmes sur le 105,8 MHz à Lyon.
-Le 5 juillet 2023, l'Arcom décide de retirer la fréquence de Lyon après un recours déposé par Sud Radio[3]. Il y est notamment stipulé que Vivre FM cessera ses programmes à Lyon à partir du 17 novembre 2023[4].
+Le 5 juillet 2023, l'Arcom décide de retirer la fréquence de Lyon après un recours déposé par Sud Radio. Il y est notamment stipulé que Vivre FM cessera ses programmes à Lyon à partir du 17 novembre 2023.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Émissions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivre FM propose 7h de direct non stop entre 7h du matin et 14h:
 - 7h à 9h : Le 7/9. 2h d'information et d'actualité autour de Dominique Celières et sa bande de journalistes
@@ -589,7 +605,9 @@
           <t>Grille d'été 2022</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'été 2022, Vivre FM propose 2 émissions phares en direct chaque matin à partir du 1er juillet :
 - 8h/10h : C'est çà la France, animée par Dominique Célières
